--- a/ML/(BPNN)BP神经网络/Functions (1).xlsx
+++ b/ML/(BPNN)BP神经网络/Functions (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hang.yang/AI/pythonsamples-main/ML/(BPNN)BP神经网络/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3907EFC5-4E0F-8243-A39E-BA825AB28A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{065F744B-C39F-BF42-A933-EE8647DF9091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1800" windowWidth="29400" windowHeight="17000" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="400" yWindow="740" windowWidth="29400" windowHeight="17000" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sigmoid函数" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="160">
   <si>
     <t>e</t>
   </si>
@@ -656,6 +656,15 @@
   <si>
     <t>gap</t>
   </si>
+  <si>
+    <t>X^2</t>
+  </si>
+  <si>
+    <t>2X</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -1419,6 +1428,530 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333333"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>双曲线!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>双曲线!$B$2:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>8.2865352631040352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4833147735478827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6833125519211407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8878405775518976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0990195135927845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3204937989385739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5590260840104371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8284271247461903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1602468994692865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6329931618554521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4142135623730951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6329931618554521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1602468994692865</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8284271247461903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5590260840104371</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3204937989385739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0990195135927845</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8878405775518976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6833125519211407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.4833147735478827</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2865352631040352</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8.2865352631040352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.4833147735478827</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.6833125519211407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.8878405775518976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0990195135927845</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.3204937989385739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.5590260840104371</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.8284271247461903</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1602468994692865</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.6329931618554521</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.4142135623730951</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.6329931618554521</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.1602468994692865</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.8284271247461903</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.5590260840104371</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.3204937989385739</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.0990195135927845</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.8878405775518976</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.6833125519211407</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.4833147735478827</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.2865352631040352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34E8-8243-9468-917B67D0690A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1305162015"/>
+        <c:axId val="1"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1305162015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305162015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2654,6 +3187,829 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0772833723653397E-2"/>
+          <c:y val="8.9806696055809446E-2"/>
+          <c:w val="0.95049180327868854"/>
+          <c:h val="0.89767334955422473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y=2X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>函数的导数和极限!$J$36:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>函数的导数和极限!$L$36:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3628-604D-A31B-18753FE1DC9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Y=X^2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>函数的导数和极限!$J$36:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>函数的导数和极限!$K$36:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3628-604D-A31B-18753FE1DC9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1554068271"/>
+        <c:axId val="1554069983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1554068271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554069983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1554069983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554068271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2965,7 +4321,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3273,7 +4629,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3935,7 +5291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4300,530 +5656,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333333"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>双曲线!$A$2:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>双曲线!$B$2:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>8.2865352631040352</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4833147735478827</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6833125519211407</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8878405775518976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0990195135927845</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3204937989385739</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5590260840104371</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8284271247461903</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1602468994692865</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6329931618554521</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4142135623730951</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6329931618554521</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.1602468994692865</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8284271247461903</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5590260840104371</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3204937989385739</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0990195135927845</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.8878405775518976</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.6833125519211407</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.4833147735478827</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.2865352631040352</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-8.2865352631040352</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-7.4833147735478827</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-6.6833125519211407</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-5.8878405775518976</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5.0990195135927845</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-4.3204937989385739</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-3.5590260840104371</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.8284271247461903</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1602468994692865</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.6329931618554521</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.4142135623730951</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.6329931618554521</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-2.1602468994692865</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-2.8284271247461903</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3.5590260840104371</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-4.3204937989385739</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5.0990195135927845</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-5.8878405775518976</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-6.6833125519211407</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-7.4833147735478827</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-8.2865352631040352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-34E8-8243-9468-917B67D0690A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1305162015"/>
-        <c:axId val="1"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1305162015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="333333"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="333333"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1305162015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4864,7 +5696,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6559,6 +7934,42 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC38BB76-0B43-BFD1-54AE-D8A424CDE80B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8402,8 +9813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15289,10 +16700,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A37:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -15523,20 +16934,545 @@
         <v>2.0000001192092896</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="10" customHeight="1"/>
-    <row r="35" spans="1:1" ht="160">
+    <row r="34" spans="1:12" ht="10" customHeight="1"/>
+    <row r="35" spans="1:12" ht="160">
       <c r="A35" s="26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="J35" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" t="s">
+        <v>157</v>
+      </c>
+      <c r="L35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="J36">
+        <v>-19</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36" si="1">J36^2</f>
+        <v>361</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36:L55" si="2">2*J36</f>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="33" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="J37">
+        <v>-18</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:K75" si="3">J37^2</f>
+        <v>324</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="33" t="s">
         <v>143</v>
+      </c>
+      <c r="J38">
+        <v>-17</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>289</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="J39">
+        <v>-16</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="J40">
+        <v>-15</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="J41">
+        <v>-14</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="J42">
+        <v>-13</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="J43">
+        <v>-12</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="J44">
+        <v>-11</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="J45">
+        <v>-10</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="J46">
+        <v>-9</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="J47">
+        <v>-8</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="J48">
+        <v>-7</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="49" spans="10:12">
+      <c r="J49">
+        <v>-6</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="50" spans="10:12">
+      <c r="J50">
+        <v>-5</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="10:12">
+      <c r="J51">
+        <v>-4</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="52" spans="10:12">
+      <c r="J52">
+        <v>-3</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="53" spans="10:12">
+      <c r="J53">
+        <v>-2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="54" spans="10:12">
+      <c r="J54">
+        <v>-1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="55" spans="10:12">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12">
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f>J56^2</f>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f>2*J56</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="10:12">
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ref="L57:L75" si="4">2*J57</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="10:12">
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="10:12">
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="10:12">
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="10:12">
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="10:12">
+      <c r="J62">
+        <v>7</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="10:12">
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="10:12">
+      <c r="J64">
+        <v>9</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="10:12">
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="10:12">
+      <c r="J66">
+        <v>11</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="10:12">
+      <c r="J67">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="10:12">
+      <c r="J68">
+        <v>13</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="10:12">
+      <c r="J69">
+        <v>14</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="10:12">
+      <c r="J70">
+        <v>15</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="10:12">
+      <c r="J71">
+        <v>16</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="10:12">
+      <c r="J72">
+        <v>17</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>289</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="10:12">
+      <c r="J73">
+        <v>18</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>324</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12">
+      <c r="J74">
+        <v>19</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>361</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="10:12">
+      <c r="J75">
+        <v>20</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -15550,8 +17486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A23"/>
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/ML/(BPNN)BP神经网络/Functions (1).xlsx
+++ b/ML/(BPNN)BP神经网络/Functions (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hang.yang/AI/pythonsamples-main/ML/(BPNN)BP神经网络/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{065F744B-C39F-BF42-A933-EE8647DF9091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AEAEF8-D656-B043-A6FB-8179A6F63771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="740" windowWidth="29400" windowHeight="17000" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-1120" yWindow="740" windowWidth="29400" windowHeight="17000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sigmoid函数" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="162">
   <si>
     <t>e</t>
   </si>
@@ -665,11 +665,17 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>点为3的切线=6x-9</t>
+  </si>
+  <si>
+    <t>点为6的切线=12x-36</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -904,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,7 +980,7 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -985,9 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1429,6 +1432,1033 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>y=X^2/2-2X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3173202416657302E-2"/>
+          <c:y val="6.5907229449361324E-2"/>
+          <c:w val="0.91066862404911253"/>
+          <c:h val="0.82456089465949023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>梯度下降法!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>梯度下降法!$B$1:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B8B2-CA45-B2A5-2B2D7654F70E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>梯度下降法!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>梯度下降法!$B$1:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B8B2-CA45-B2A5-2B2D7654F70E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="229992847"/>
+        <c:axId val="1841589711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="229992847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841589711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1841589711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229992847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>梯度下降</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>梯度下降法!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.90625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.046875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9765625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.01171875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.994140625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>梯度下降法!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.71875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.9296875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.982421875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.99560546875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9989013671875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.999725341796875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9999313354492188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9999828338623047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C83-FB4A-8FA6-ACEA1DC3BB28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="646128896"/>
+        <c:axId val="646130608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="646128896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646130608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="646130608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646128896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2792,6 +3822,14 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>极限</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>收敛</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4010,6 +5048,1374 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4194171604838054E-2"/>
+          <c:y val="9.1675862529769434E-2"/>
+          <c:w val="0.95049180327868854"/>
+          <c:h val="0.89767334955422473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>切线3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>函数的导数和极限!$J$36:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>函数的导数和极限!$M$36:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2AE2-6C4E-AC15-87E55DF4240F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>函数的导数和极限!$K$36:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-2AE2-6C4E-AC15-87E55DF4240F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1554068271"/>
+        <c:axId val="1554069983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1554068271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554069983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1554069983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554068271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:alpha val="81000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4194171604838054E-2"/>
+          <c:y val="9.1675862529769434E-2"/>
+          <c:w val="0.95049180327868854"/>
+          <c:h val="0.89767334955422473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>切线6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>函数的导数和极限!$J$36:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>函数的导数和极限!$N$36:$N$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F207-9D45-B45D-02A464676790}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>函数的导数和极限!$M$36:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F207-9D45-B45D-02A464676790}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1554068271"/>
+        <c:axId val="1554069983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1554068271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554069983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1554069983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554068271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:alpha val="81000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4321,7 +6727,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4629,1033 +7035,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>y=X^2/2-2X</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3173202416657302E-2"/>
-          <c:y val="6.5907229449361324E-2"/>
-          <c:w val="0.91066862404911253"/>
-          <c:h val="0.82456089465949023"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>梯度下降法!$A$2:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>梯度下降法!$B$1:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-B8B2-CA45-B2A5-2B2D7654F70E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>梯度下降法!$A$2:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>梯度下降法!$B$1:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B8B2-CA45-B2A5-2B2D7654F70E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="229992847"/>
-        <c:axId val="1841589711"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="229992847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1841589711"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1841589711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="229992847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>梯度下降</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>梯度下降法!$M$2:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.90625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.046875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9765625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.01171875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.994140625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>梯度下降法!$O$2:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.71875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.9296875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.982421875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.99560546875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.9989013671875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.999725341796875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.9999313354492188</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.9999828338623047</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C83-FB4A-8FA6-ACEA1DC3BB28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="646128896"/>
-        <c:axId val="646130608"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="646128896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="646130608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="646130608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="646128896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5697,6 +7076,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6240,6 +7699,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7863,15 +10328,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7901,7 +10366,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7721600" y="3022600"/>
+          <a:off x="7835900" y="3479800"/>
           <a:ext cx="4635500" cy="3365500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7936,16 +10401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>91017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7965,6 +10430,258 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>325968</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>237068</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>89122</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE52923-4C3F-B14B-9453-54893479095A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>474134</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>158066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E52E763-6FED-C35C-3A92-8E576E9DE180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5096934" y="16984133"/>
+          <a:ext cx="7772400" cy="6017000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>245533</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C373058-04F9-FC51-2EC1-A8E1F5CA9B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4961466" y="22995467"/>
+          <a:ext cx="2768600" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>524933</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>178902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F9532D-ED74-DE03-501C-AEC0F1EC78DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4893733" y="25467734"/>
+          <a:ext cx="7772400" cy="5936235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1257301</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D79D08-FE64-6233-5B1C-85C94F8A4210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876801" y="31716134"/>
+          <a:ext cx="4559300" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>643466</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F41EA5-93DD-2A4F-ACAA-4390F821F335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9633,7 +12350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9810,11 +12527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10031,7 +12748,7 @@
         <v>-1.99560546875</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P12" si="6">O8-O7</f>
+        <f t="shared" ref="P8:P11" si="6">O8-O7</f>
         <v>-1.318359375E-2</v>
       </c>
     </row>
@@ -10306,7 +13023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10712,7 +13429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10927,7 +13644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -11497,7 +14214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -11877,7 +14594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -12009,16 +14726,16 @@
       <c r="E8">
         <v>16</v>
       </c>
-      <c r="H8" s="34">
-        <v>1</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36">
+      <c r="H8" s="33">
+        <v>1</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35">
         <v>2</v>
       </c>
-      <c r="M8" s="37"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9">
@@ -12033,16 +14750,16 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40" t="s">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="41"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10">
@@ -12351,7 +15068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -12372,15 +15089,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
@@ -12522,15 +15239,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
@@ -12670,15 +15387,15 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7"/>
@@ -12844,15 +15561,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
@@ -12864,15 +15581,15 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="27" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="19">
       <c r="A25" s="8" t="s">
@@ -12969,15 +15686,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="94" customHeight="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4"/>
@@ -13137,12 +15854,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
@@ -13150,7 +15867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -15389,16 +18106,6 @@
         <cfvo type="max"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:Q20">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFE7E6E6"/>
-        <color theme="5"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -15422,16 +18129,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:Q45">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="2"/>
-        <color rgb="FFFF6600"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A50:H57">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -15452,6 +18149,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J13:Q20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFE7E6E6"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:Q45">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFFF6600"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J62:Q69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -15467,7 +18184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -16037,8 +18754,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -16128,7 +18845,7 @@
         <f t="shared" ref="L2:L8" si="2">I2*J2*K2</f>
         <v>729</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -16158,7 +18875,7 @@
         <f t="shared" si="2"/>
         <v>8748</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16188,7 +18905,7 @@
         <f t="shared" si="2"/>
         <v>43740</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16218,7 +18935,7 @@
         <f t="shared" si="2"/>
         <v>116640</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -16248,7 +18965,7 @@
         <f t="shared" si="2"/>
         <v>174960</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16278,7 +18995,7 @@
         <f t="shared" si="2"/>
         <v>139968</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14">
       <c r="F8">
@@ -16304,109 +19021,76 @@
         <f t="shared" si="2"/>
         <v>46656</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="G9" s="27"/>
       <c r="L9" s="25">
         <f>SUM(L2:L8)</f>
         <v>531441</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="41" customHeight="1">
-      <c r="G10" s="27"/>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="64" customHeight="1">
-      <c r="G11" s="27"/>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30">
-      <c r="G12" s="27"/>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19">
-      <c r="G13" s="27"/>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="G14" s="27"/>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="G15" s="27"/>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="G16" s="27"/>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="7:14" ht="30">
-      <c r="G17" s="27"/>
-      <c r="N17" s="32" t="s">
+    <row r="17" spans="14:14" ht="30">
+      <c r="N17" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="7:14">
-      <c r="G18" s="27"/>
-      <c r="N18" s="32" t="s">
+    <row r="18" spans="14:14">
+      <c r="N18" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="7:14" ht="30">
-      <c r="G19" s="27"/>
-      <c r="N19" s="32" t="s">
+    <row r="19" spans="14:14" ht="30">
+      <c r="N19" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="7:14">
-      <c r="G20" s="27"/>
-      <c r="N20" s="32" t="s">
+    <row r="20" spans="14:14">
+      <c r="N20" s="31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="7:14">
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="7:14">
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="7:14">
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="7:14">
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="7:14">
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="7:14">
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="7:14">
-      <c r="G27" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" tooltip="https://baike.baidu.com/item/%E9%AB%98%E9%98%B6%E5%AF%BC%E6%95%B0"/>
-    <hyperlink ref="N10" r:id="rId2" tooltip="https://baike.baidu.com/item/%E4%BA%8C%E9%A1%B9%E5%BC%8F%E5%AE%9A%E7%90%86"/>
-    <hyperlink ref="N11" r:id="rId3" tooltip="https://baike.baidu.com/item/%E5%9B%9B%E5%88%99%E8%BF%90%E7%AE%97"/>
-    <hyperlink ref="N12" r:id="rId4" tooltip="https://baike.baidu.com/item/%E9%9D%A0%E6%8B%A2"/>
+    <hyperlink ref="N3" r:id="rId1" tooltip="https://baike.baidu.com/item/%E9%AB%98%E9%98%B6%E5%AF%BC%E6%95%B0" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="N10" r:id="rId2" tooltip="https://baike.baidu.com/item/%E4%BA%8C%E9%A1%B9%E5%BC%8F%E5%AE%9A%E7%90%86" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="N11" r:id="rId3" tooltip="https://baike.baidu.com/item/%E5%9B%9B%E5%88%99%E8%BF%90%E7%AE%97" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="N12" r:id="rId4" tooltip="https://baike.baidu.com/item/%E9%9D%A0%E6%8B%A2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -16416,7 +19100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -16699,11 +19383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36:K75"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U179" sqref="U179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -16717,6 +19401,8 @@
     <col min="9" max="9" width="1.5" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:11">
@@ -16934,8 +19620,8 @@
         <v>2.0000001192092896</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="10" customHeight="1"/>
-    <row r="35" spans="1:12" ht="160">
+    <row r="34" spans="1:14" ht="10" customHeight="1"/>
+    <row r="35" spans="1:14" ht="160">
       <c r="A35" s="26" t="s">
         <v>35</v>
       </c>
@@ -16948,8 +19634,14 @@
       <c r="L35" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" t="s">
+        <v>160</v>
+      </c>
+      <c r="N35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="J36">
         <v>-19</v>
       </c>
@@ -16961,9 +19653,17 @@
         <f t="shared" ref="L36:L55" si="2">2*J36</f>
         <v>-38</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="33" t="s">
+      <c r="M36">
+        <f>6*J36-9</f>
+        <v>-123</v>
+      </c>
+      <c r="N36">
+        <f>12*J36-36</f>
+        <v>-264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="32" t="s">
         <v>142</v>
       </c>
       <c r="J37">
@@ -16977,9 +19677,17 @@
         <f t="shared" si="2"/>
         <v>-36</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="33" t="s">
+      <c r="M37">
+        <f>6*J37-9</f>
+        <v>-117</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:N75" si="4">12*J37-36</f>
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="32" t="s">
         <v>143</v>
       </c>
       <c r="J38">
@@ -16993,8 +19701,16 @@
         <f t="shared" si="2"/>
         <v>-34</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <f t="shared" ref="M38:M75" si="5">6*J38-9</f>
+        <v>-111</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="J39">
         <v>-16</v>
       </c>
@@ -17006,8 +19722,16 @@
         <f t="shared" si="2"/>
         <v>-32</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>-105</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>-228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="J40">
         <v>-15</v>
       </c>
@@ -17019,8 +19743,16 @@
         <f t="shared" si="2"/>
         <v>-30</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>-99</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>-216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="J41">
         <v>-14</v>
       </c>
@@ -17032,8 +19764,16 @@
         <f t="shared" si="2"/>
         <v>-28</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>-93</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="J42">
         <v>-13</v>
       </c>
@@ -17045,8 +19785,16 @@
         <f t="shared" si="2"/>
         <v>-26</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>-87</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="J43">
         <v>-12</v>
       </c>
@@ -17058,8 +19806,16 @@
         <f t="shared" si="2"/>
         <v>-24</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>-81</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="J44">
         <v>-11</v>
       </c>
@@ -17071,8 +19827,16 @@
         <f t="shared" si="2"/>
         <v>-22</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>-75</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="J45">
         <v>-10</v>
       </c>
@@ -17084,8 +19848,16 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>-69</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>-156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="J46">
         <v>-9</v>
       </c>
@@ -17097,8 +19869,16 @@
         <f t="shared" si="2"/>
         <v>-18</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>-63</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="J47">
         <v>-8</v>
       </c>
@@ -17110,8 +19890,16 @@
         <f t="shared" si="2"/>
         <v>-16</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>-57</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="J48">
         <v>-7</v>
       </c>
@@ -17123,8 +19911,16 @@
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-    </row>
-    <row r="49" spans="10:12">
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>-51</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14">
       <c r="J49">
         <v>-6</v>
       </c>
@@ -17136,8 +19932,16 @@
         <f t="shared" si="2"/>
         <v>-12</v>
       </c>
-    </row>
-    <row r="50" spans="10:12">
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>-45</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14">
       <c r="J50">
         <v>-5</v>
       </c>
@@ -17149,8 +19953,16 @@
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="51" spans="10:12">
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>-39</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14">
       <c r="J51">
         <v>-4</v>
       </c>
@@ -17162,8 +19974,16 @@
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="52" spans="10:12">
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14">
       <c r="J52">
         <v>-3</v>
       </c>
@@ -17175,8 +19995,16 @@
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="53" spans="10:12">
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>-27</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14">
       <c r="J53">
         <v>-2</v>
       </c>
@@ -17188,8 +20016,16 @@
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="54" spans="10:12">
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>-21</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14">
       <c r="J54">
         <v>-1</v>
       </c>
@@ -17201,8 +20037,16 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="55" spans="10:12">
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="4"/>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14">
       <c r="J55">
         <v>0</v>
       </c>
@@ -17214,8 +20058,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="10:12">
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="4"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14">
       <c r="J56">
         <v>1</v>
       </c>
@@ -17227,8 +20079,16 @@
         <f>2*J56</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="10:12">
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="4"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14">
       <c r="J57">
         <v>2</v>
       </c>
@@ -17237,11 +20097,19 @@
         <v>4</v>
       </c>
       <c r="L57">
-        <f t="shared" ref="L57:L75" si="4">2*J57</f>
+        <f t="shared" ref="L57:L75" si="6">2*J57</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="10:12">
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14">
       <c r="J58">
         <v>3</v>
       </c>
@@ -17250,11 +20118,19 @@
         <v>9</v>
       </c>
       <c r="L58">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="10:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14">
       <c r="J59">
         <v>4</v>
       </c>
@@ -17263,11 +20139,19 @@
         <v>16</v>
       </c>
       <c r="L59">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="10:12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14">
       <c r="J60">
         <v>5</v>
       </c>
@@ -17276,11 +20160,19 @@
         <v>25</v>
       </c>
       <c r="L60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="N60">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="10:12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14">
       <c r="J61">
         <v>6</v>
       </c>
@@ -17289,11 +20181,19 @@
         <v>36</v>
       </c>
       <c r="L61">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="10:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14">
       <c r="J62">
         <v>7</v>
       </c>
@@ -17302,11 +20202,19 @@
         <v>49</v>
       </c>
       <c r="L62">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="10:12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14">
       <c r="J63">
         <v>8</v>
       </c>
@@ -17315,11 +20223,19 @@
         <v>64</v>
       </c>
       <c r="L63">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="N63">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="10:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14">
       <c r="J64">
         <v>9</v>
       </c>
@@ -17328,11 +20244,19 @@
         <v>81</v>
       </c>
       <c r="L64">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="N64">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="10:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14">
       <c r="J65">
         <v>10</v>
       </c>
@@ -17341,11 +20265,19 @@
         <v>100</v>
       </c>
       <c r="L65">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="10:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14">
       <c r="J66">
         <v>11</v>
       </c>
@@ -17354,11 +20286,19 @@
         <v>121</v>
       </c>
       <c r="L66">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="10:12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14">
       <c r="J67">
         <v>12</v>
       </c>
@@ -17367,11 +20307,19 @@
         <v>144</v>
       </c>
       <c r="L67">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="N67">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="10:12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14">
       <c r="J68">
         <v>13</v>
       </c>
@@ -17380,11 +20328,19 @@
         <v>169</v>
       </c>
       <c r="L68">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="N68">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="10:12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14">
       <c r="J69">
         <v>14</v>
       </c>
@@ -17393,11 +20349,19 @@
         <v>196</v>
       </c>
       <c r="L69">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="N69">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="10:12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14">
       <c r="J70">
         <v>15</v>
       </c>
@@ -17406,11 +20370,19 @@
         <v>225</v>
       </c>
       <c r="L70">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="10:12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14">
       <c r="J71">
         <v>16</v>
       </c>
@@ -17419,11 +20391,19 @@
         <v>256</v>
       </c>
       <c r="L71">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="10:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14">
       <c r="J72">
         <v>17</v>
       </c>
@@ -17432,11 +20412,19 @@
         <v>289</v>
       </c>
       <c r="L72">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="N72">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="10:12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14">
       <c r="J73">
         <v>18</v>
       </c>
@@ -17445,11 +20433,19 @@
         <v>324</v>
       </c>
       <c r="L73">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="10:12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14">
       <c r="J74">
         <v>19</v>
       </c>
@@ -17458,11 +20454,19 @@
         <v>361</v>
       </c>
       <c r="L74">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="10:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14">
       <c r="J75">
         <v>20</v>
       </c>
@@ -17471,8 +20475,16 @@
         <v>400</v>
       </c>
       <c r="L75">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -17483,10 +20495,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A17:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -17503,12 +20515,12 @@
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -17520,7 +20532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="H1:M7"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -17650,7 +20662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="G1:O9"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -17857,11 +20869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="E1:J38"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
